--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,51 +55,54 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -115,16 +118,16 @@
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7705479452054794</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -654,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3546511627906977</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C5">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1946308724832215</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.76875</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.611764705882353</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>132</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5815899581589958</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="M22">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5692307692307692</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5525423728813559</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L24">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5319148936170213</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4719101123595505</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L28">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
